--- a/accoj/utils/questions.xlsx
+++ b/accoj/utils/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6628CF-1491-44A2-97C9-138D988D4C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F698F3-ED62-48A8-9517-9344FF1B28DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
   </bookViews>
@@ -160,18 +160,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分配本月职工工资，其中生产车间{50000}元，行政管理部门{50000}元，销售部门{50000}元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分配本月水电费，其中生产车间{50000}元，行政管理部门{50000}元，销售部门{50000}元。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分摊本月设备折旧费，其中生产车间{50000}元，行政管理部门{50000}元，销售部门{50000}元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理部门向{乙}公司购买办公用品，花费{10000}元，以银行存款支付。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,35 +220,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向{乙}公司销售{"-B产品"}一批，货款{50000}元存入银行，结转成本{40000}元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向{乙}公司销售{"-B产品"}一批，货款{50000}元尚未收到，结转成本{40000}元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库发出{"+A材料"}，其中生产车间{50000}元用于生产{"B产品"}，销售部门{50000}元用于赠送客户。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将公司拥有的{"-A股交易性金融资产"}售出，公允价值{120000}元，获得{20000}元的投资收益。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向{乙}公司购入一批{"+A材料"}价值{100000}元，货款暂欠，材料已验收入库。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以银行存款向{乙}公司购入一批{"+A材料"}，价值{100000}元，材料已验收入库。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>向{乙}公司预付货款{200000}元，用来订购{"*A材料"}。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"+B产品"}完工{50%}，产成品入库{50000}元。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,6 +470,34 @@
   </si>
   <si>
     <t>生产成本:+v1；管理费用:+v2；销售费用:+v3；累计折旧:+(v1+v2+v3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将公司拥有的{"-A股交易性金融资产"}售出，公允价值{120000}(90000-120000)元，获得{20000}元的投资{收益/亏损}。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向{乙}公司购入一批{"+A材料"}价值{100000}(90000-120000)元，货款暂欠，材料已验收入库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配本月职工工资，其中生产车间{50000}(40000-50000)元，行政管理部门{50000}(40000-50000)元，销售部门{50000}(40000-50000)元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊本月设备折旧费，其中生产车间{50000}(50000-60000)元，行政管理部门{50000}(50000-60000)元，销售部门{50000}(50000-60000)元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"+B产品"}完工{50%}(40-80%)，产成品入库{100000}元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向{乙}公司销售{"-B产品"}一批，货款{100000}元存入银行，结转成本{80000}元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向{乙}公司销售{"-B产品"}一批，货款{100000}元尚未收到，结转成本{80000}元。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,14 +912,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28653498-215D-450A-85C3-98222479FF19}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110" style="2" customWidth="1"/>
+    <col min="2" max="2" width="121.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.33203125" style="2" customWidth="1"/>
@@ -930,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,13 +965,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -1040,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1057,13 +1057,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1080,13 +1080,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1103,13 +1103,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1126,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1146,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1186,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -1206,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -1226,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1286,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1306,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>22</v>
@@ -1346,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1406,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>21</v>
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -1526,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -1546,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -1586,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>22</v>
@@ -1626,10 +1626,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/accoj/utils/questions.xlsx
+++ b/accoj/utils/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F698F3-ED62-48A8-9517-9344FF1B28DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE263733-80E8-4AA3-922D-B00A0D4754E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
   </bookViews>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理部门向{乙}公司购买办公用品，花费{10000}元，以银行存款支付。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收到{乙}公司预付货款{50000}元，存入银行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,6 +494,10 @@
   </si>
   <si>
     <t>向{乙}公司销售{"-B产品"}一批，货款{100000}元尚未收到，结转成本{80000}元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理部门向{乙}公司购买{"+办公用品"}，花费{10000}元，以银行存款支付。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28653498-215D-450A-85C3-98222479FF19}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,13 +965,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -1040,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1057,13 +1057,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1080,13 +1080,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1103,13 +1103,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1126,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1146,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1186,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -1206,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -1226,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1286,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1306,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>22</v>
@@ -1346,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1406,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -1526,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -1546,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -1586,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>22</v>
@@ -1626,10 +1626,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/accoj/utils/questions.xlsx
+++ b/accoj/utils/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE263733-80E8-4AA3-922D-B00A0D4754E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEA384-4493-4D0A-B879-166421BD85DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="108">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,14 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行存款:+V2；主营业务收入:-v2；主营业务成本:+v3；库存商品:-v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款:+V2；主营业务收入:-v2；主营业务成本:+v3；库存商品:-v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银行存款:-v2；销售费用:+v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,6 +490,18 @@
   </si>
   <si>
     <t>管理部门向{乙}公司购买{"+办公用品"}，花费{10000}元，以银行存款支付。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款:+v2；主营业务收入:-v2；主营业务成本:+v3；库存商品:-v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款:+v2；主营业务收入:-v2；主营业务成本:+v3；库存商品:-v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.key_elements和subjects部分`v`必须为小写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28653498-215D-450A-85C3-98222479FF19}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -930,7 +934,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -968,7 +972,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>55</v>
@@ -1014,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -1131,6 +1135,9 @@
       <c r="F9" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1217,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -1297,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1397,7 +1404,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1457,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -1469,7 +1476,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1489,7 +1496,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1509,7 +1516,7 @@
         <v>63</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,7 +1524,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -1557,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -1569,7 +1576,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,7 +1584,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -1589,7 +1596,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,7 +1616,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,7 +1636,7 @@
         <v>67</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
